--- a/DiscordBot/DiscordBot/Commands.xlsx
+++ b/DiscordBot/DiscordBot/Commands.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\思媛\DiscordBot\DiscordBot\DiscordBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70255B5-9FD4-4BD2-9B64-971231F24B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569B1EED-3909-4360-A636-373BD7B2F0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1872" yWindow="24" windowWidth="19608" windowHeight="12312" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PVE" sheetId="2" r:id="rId1"/>
@@ -35,29 +35,30 @@
     <t>Response</t>
   </si>
   <si>
-    <t>/攻略</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PVE 攻略：推薦用 A 隊伍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PVE 必學技能是 X 技能。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/裝備</t>
-  </si>
-  <si>
     <t>PVP 推薦使用高攻擊裝備。</t>
   </si>
   <si>
     <t>PVP 攻略：先擊殺支援型角色。</t>
+  </si>
+  <si>
+    <t>攻略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裝備</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -100,8 +101,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -384,38 +386,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16A99C7-8766-4129-AEF3-F801C5B0CF8F}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.875" customWidth="1"/>
-    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="1" max="1" width="34.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -428,38 +431,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.25" customWidth="1"/>
-    <col min="2" max="2" width="54.375" customWidth="1"/>
+    <col min="1" max="1" width="38.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
